--- a/xlsx/联邦调查局_intext.xlsx
+++ b/xlsx/联邦调查局_intext.xlsx
@@ -20,1516 +20,1516 @@
     <t>联邦调查局</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E8%AA%BF%E6%9F%A5%E5%B1%80</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%B8%E6%B3%95%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国司法部</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_联邦调查局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E8%AA%BF%E6%9F%A5%E5%B1%80_(%E9%9B%BB%E5%BD%B1)</t>
+  </si>
+  <si>
+    <t>联邦调查局 (电影)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E6%A9%9F%E6%A7%8B</t>
+  </si>
+  <si>
+    <t>政府机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>华盛顿哥伦比亚特区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%9F%83%E5%BE%B7%E5%8A%A0%C2%B7%E8%83%A1%E4%BD%9B%E5%A4%A7%E6%A8%93</t>
+  </si>
+  <si>
+    <t>约翰·埃德加·胡佛大楼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%9D%90%E6%A0%87</t>
+  </si>
+  <si>
+    <t>地理坐标</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E8%AA%BF%E6%9F%A5%E5%B1%80%E9%95%B7</t>
+  </si>
+  <si>
+    <t>联邦调查局长</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E6%96%AF%E6%89%98%E5%BC%97%C2%B7A%C2%B7%E9%9B%B7</t>
+  </si>
+  <si>
+    <t>克里斯托弗·A·雷</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Deputy_Director_of_the_Federal_Bureau_of_Investigation</t>
+  </si>
+  <si>
+    <t>en-Deputy Director of the Federal Bureau of Investigation</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E9%AD%AF%C2%B7%E9%BA%A5%E5%8D%A1%E6%AF%94</t>
+  </si>
+  <si>
+    <t>安德鲁·麦卡比</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E5%9F%83%E5%BE%B7%E5%8A%A0%C2%B7%E8%83%A1%E4%BD%9B</t>
+  </si>
+  <si>
+    <t>约翰·埃德加·胡佛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%C2%B7%E8%B4%B9%E5%B0%94%E7%89%B9</t>
+  </si>
+  <si>
+    <t>马克·费尔特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E9%97%A8%E4%BA%8B%E4%BB%B6</t>
+  </si>
+  <si>
+    <t>水门事件</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>美国联邦政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E9%96%93%E8%AB%9C</t>
+  </si>
+  <si>
+    <t>反间谍</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B3%95%E5%85%B8</t>
+  </si>
+  <si>
+    <t>美国法典</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%B8%E6%B3%95%E9%83%A8%E9%95%BF</t>
+  </si>
+  <si>
+    <t>美国司法部长</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6</t>
+  </si>
+  <si>
+    <t>联邦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
+  </si>
+  <si>
+    <t>美国宪法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A7%90%E5%A4%96%E4%BD%BF%E9%A4%A8%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国驻外使馆列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A5%A5%E5%A4%9A%C2%B7%E7%BD%97%E6%96%AF%E7%A6%8F</t>
+  </si>
+  <si>
+    <t>西奥多·罗斯福</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%9F%83%E5%BE%B7%E5%8A%A0%C2%B7%E8%83%A1%E4%BD%9B</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>社会主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E8%B4%9D%E7%89%B9%C2%B7%E7%88%B1%E5%9B%A0%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>阿尔贝特·爱因斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%85%B0%E5%85%8B%E6%9E%97%C2%B7%E5%BE%B7%E6%8B%89%E8%AF%BA%C2%B7%E7%BD%97%E6%96%AF%E7%A6%8F</t>
+  </si>
+  <si>
+    <t>富兰克林·德拉诺·罗斯福</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>自由主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>总统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E9%83%A8%E9%97%A8</t>
+  </si>
+  <si>
+    <t>行政部门</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>维吉尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%A1%E6%8F%90%E7%A7%91</t>
+  </si>
+  <si>
+    <t>匡提科</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E8%BF%AA%E6%9E%97%E6%9D%B0</t>
+  </si>
+  <si>
+    <t>约翰·迪林杰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%83%E5%A8%83%E8%84%B8%E5%B0%BC%E5%B0%94%E6%A3%AE</t>
+  </si>
+  <si>
+    <t>娃娃脸尼尔森</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%BA%E5%85%B3%E6%9E%AA%E5%87%AF%E5%88%A9</t>
+  </si>
+  <si>
+    <t>机关枪凯利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%89K%E5%85%9A</t>
+  </si>
+  <si>
+    <t>三K党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%97%B4%E8%B0%8D</t>
+  </si>
+  <si>
+    <t>间谍</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
+  </si>
+  <si>
+    <t>第二次世界大战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%B2%B9</t>
+  </si>
+  <si>
+    <t>纳粹</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8C%81%E4%B8%8D%E5%90%8C%E6%94%BF%E8%A7%81%E8%80%85</t>
+  </si>
+  <si>
+    <t>持不同政见者</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E4%B8%81%C2%B7%E8%B7%AF%E5%BE%B7%C2%B7%E9%87%91</t>
+  </si>
+  <si>
+    <t>马丁·路德·金</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E9%82%AE%E6%8A%A5</t>
+  </si>
+  <si>
+    <t>华盛顿邮报</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E6%A7%8D</t>
+  </si>
+  <si>
+    <t>手枪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/SIG_P226%E6%89%8B%E6%A7%8D</t>
+  </si>
+  <si>
+    <t>SIG P226手枪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/SIG_P228%E6%89%8B%E6%A7%8D</t>
+  </si>
+  <si>
+    <t>SIG P228手枪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%B4%9B%E5%85%8B</t>
+  </si>
+  <si>
+    <t>格洛克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%B4%9B%E5%85%8B22</t>
+  </si>
+  <si>
+    <t>格洛克22</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%B4%9B%E5%85%8B23</t>
+  </si>
+  <si>
+    <t>格洛克23</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%B4%9B%E5%85%8B17</t>
+  </si>
+  <si>
+    <t>格洛克17</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%B4%9B%E5%85%8B19</t>
+  </si>
+  <si>
+    <t>格洛克19</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%B4%9B%E5%85%8B26</t>
+  </si>
+  <si>
+    <t>格洛克26</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%B4%9B%E5%85%8B27</t>
+  </si>
+  <si>
+    <t>格洛克27</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%B4%9B%E5%85%8B21</t>
+  </si>
+  <si>
+    <t>格洛克21</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/M1911%E6%89%8B%E6%A7%8D</t>
+  </si>
+  <si>
+    <t>M1911手枪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%98%A5%E7%94%B0%E5%85%B5%E5%B7%A5%E5%BB%A0</t>
+  </si>
+  <si>
+    <t>春田兵工厂</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E8%AA%BF%E6%9F%A5%E5%B1%80%E7%89%B9%E7%A8%AE%E6%AD%A6%E5%99%A8%E5%92%8C%E6%88%B0%E8%A1%93%E9%83%A8%E9%9A%8A</t>
+  </si>
+  <si>
+    <t>联邦调查局特种武器和战术部队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E8%B3%AA%E6%8B%AF%E6%95%91%E9%9A%8A</t>
+  </si>
+  <si>
+    <t>人质拯救队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A1%9D%E9%8B%92%E6%A7%8D</t>
+  </si>
+  <si>
+    <t>冲锋枪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/HK_MP5%E8%A1%9D%E9%8B%92%E6%A7%8D</t>
+  </si>
+  <si>
+    <t>HK MP5冲锋枪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9C%B0%E5%BD%88%E6%A7%8D</t>
+  </si>
+  <si>
+    <t>霰弹枪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E6%98%8E%E7%99%BB870%E6%B3%B5%E5%8B%95%E5%BC%8F%E9%9C%B0%E5%BD%88%E6%A7%8D</t>
+  </si>
+  <si>
+    <t>雷明登870泵动式霰弹枪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%A5%E6%A7%8D</t>
+  </si>
+  <si>
+    <t>步枪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/M4%E5%8D%A1%E8%B3%93%E6%A7%8D</t>
+  </si>
+  <si>
+    <t>M4卡宾枪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/CAR-15%E5%8D%A1%E8%B3%93%E6%A7%8D</t>
+  </si>
+  <si>
+    <t>CAR-15卡宾枪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E6%A4%92%E5%99%B4%E9%9C%A7</t>
+  </si>
+  <si>
+    <t>胡椒喷雾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%B8%E7%B8%AE%E8%AD%A6%E6%A3%8D</t>
+  </si>
+  <si>
+    <t>伸缩警棍</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>美国总统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E9%87%8C%C2%B7S%C2%B7%E6%9D%9C%E9%B2%81%E9%97%A8</t>
+  </si>
+  <si>
+    <t>哈里·S·杜鲁门</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%80%80%E7%89%B9%C2%B7%E8%89%BE%E6%A3%AE%E8%B1%AA%E5%A8%81%E5%B0%94</t>
+  </si>
+  <si>
+    <t>德怀特·艾森豪威尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E8%82%AF%E5%B0%BC%E8%BF%AA</t>
+  </si>
+  <si>
+    <t>约翰·肯尼迪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E7%99%BB%C2%B7%E7%BA%A6%E7%BF%B0%E9%80%8A</t>
+  </si>
+  <si>
+    <t>林登·约翰逊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%E5%BE%B7%C2%B7%E5%B0%BC%E5%85%8B%E6%9D%BE</t>
+  </si>
+  <si>
+    <t>理查德·尼克松</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/L._Patrick_Gray</t>
+  </si>
+  <si>
+    <t>en-L. Patrick Gray</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/William_Ruckelshaus</t>
+  </si>
+  <si>
+    <t>en-William Ruckelshaus</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Clarence_M._Kelley</t>
+  </si>
+  <si>
+    <t>en-Clarence M. Kelley</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E6%8B%89%E5%B0%94%E5%BE%B7%C2%B7%E7%A6%8F%E7%89%B9</t>
+  </si>
+  <si>
+    <t>杰拉尔德·福特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%B1%B3%C2%B7%E5%8D%A1%E7%89%B9</t>
+  </si>
+  <si>
+    <t>吉米·卡特</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/James_B._Adams</t>
+  </si>
+  <si>
+    <t>en-James B. Adams</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/William_H._Webster</t>
+  </si>
+  <si>
+    <t>en-William H. Webster</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E7%BA%B3%E5%BE%B7%C2%B7%E9%87%8C%E6%A0%B9</t>
+  </si>
+  <si>
+    <t>罗纳德·里根</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/John_E._Otto</t>
+  </si>
+  <si>
+    <t>en-John E. Otto</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/William_S._Sessions</t>
+  </si>
+  <si>
+    <t>en-William S. Sessions</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7%E8%B5%AB%E4%BC%AF%E7%89%B9%C2%B7%E6%B2%83%E5%85%8B%C2%B7%E5%B8%83%E4%BB%80</t>
+  </si>
+  <si>
+    <t>乔治·赫伯特·沃克·布什</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%B0%94%C2%B7%E5%85%8B%E6%9E%97%E9%A1%BF</t>
+  </si>
+  <si>
+    <t>比尔·克林顿</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Floyd_I._Clarke</t>
+  </si>
+  <si>
+    <t>en-Floyd I. Clarke</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Louis_Freeh</t>
+  </si>
+  <si>
+    <t>en-Louis Freeh</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7%E6%B2%83%E5%85%8B%C2%B7%E5%B8%83%E4%BB%80</t>
+  </si>
+  <si>
+    <t>乔治·沃克·布什</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Thomas_J._Pickard</t>
+  </si>
+  <si>
+    <t>en-Thomas J. Pickard</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E7%A9%86%E5%8B%92</t>
+  </si>
+  <si>
+    <t>罗伯特·穆勒</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E6%8B%89%E5%85%8B%C2%B7%E5%A5%A5%E5%B7%B4%E9%A9%AC</t>
+  </si>
+  <si>
+    <t>贝拉克·奥巴马</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E7%A7%91%E7%B1%B3</t>
+  </si>
+  <si>
+    <t>詹姆斯·科米</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%94%90%E7%B4%8D%C2%B7%E5%B7%9D%E6%99%AE</t>
+  </si>
+  <si>
+    <t>唐纳·川普</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E9%AD%AF%C2%B7G%C2%B7%E9%BA%A5%E5%8D%A1%E6%AF%94</t>
+  </si>
+  <si>
+    <t>安德鲁·G·麦卡比</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E8%AA%BF%E6%9F%A5%E5%B1%80%E5%8D%81%E5%A4%A7%E9%80%9A%E7%B7%9D%E8%A6%81%E7%8A%AF</t>
+  </si>
+  <si>
+    <t>美国联邦调查局十大通缉要犯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E5%A0%B1%E5%B1%80</t>
+  </si>
+  <si>
+    <t>中央情报局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E7%B4%A2%E5%BC%95</t>
+  </si>
+  <si>
+    <t>Template talk-美国索引</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>美国历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2%E5%B9%B4%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国历史年表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
+  </si>
+  <si>
+    <t>前哥伦布时期</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>十三殖民地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8B%AC%E7%AB%8B%E5%AE%A3%E8%A8%80</t>
+  </si>
+  <si>
+    <t>美国独立宣言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9D%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>美国革命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
+  </si>
+  <si>
+    <t>美国领土变迁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%88%98</t>
+  </si>
+  <si>
+    <t>美国内战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%87%8D%E5%BB%BA%E6%97%B6%E6%9C%9F</t>
+  </si>
+  <si>
+    <t>美国重建时期</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%90%A7%E6%9D%A1</t>
+  </si>
+  <si>
+    <t>大萧条</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%98</t>
+  </si>
+  <si>
+    <t>冷战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>朝鲜战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%B0%91%E6%9D%83%E8%BF%90%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>非裔美国人民权运动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>越南战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
+  </si>
+  <si>
+    <t>波斯湾战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>反恐战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
+  </si>
+  <si>
+    <t>金融海啸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
+  </si>
+  <si>
+    <t>美国人口</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>美国经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%80%BA%E5%8A%A1%E4%B8%8A%E9%99%90%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>美国债务上限历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%9B%E4%BA%8B</t>
+  </si>
+  <si>
+    <t>美国军事</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
+  </si>
+  <si>
+    <t>美国邮政署</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
+  </si>
+  <si>
+    <t>美国科学技术</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B3%95%E5%BE%8B</t>
+  </si>
+  <si>
+    <t>美国法律</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9D%83%E5%88%A9%E6%B3%95%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国权利法案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
+  </si>
+  <si>
+    <t>权力分立</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
+  </si>
+  <si>
+    <t>立法机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>美国国会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国众议院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国参议院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%89%AF%E6%80%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>美国副总统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国联邦机构列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E5%8A%9E%E4%BA%8B%E6%9C%BA%E6%9E%84</t>
+  </si>
+  <si>
+    <t>美国总统办事机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E9%98%81</t>
+  </si>
+  <si>
+    <t>美国内阁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
+  </si>
+  <si>
+    <t>美国政府独立机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国最高法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦上诉法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E5%9C%B0%E5%8C%BA%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦地区法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
+  </si>
+  <si>
+    <t>美国情报体系</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
+  </si>
+  <si>
+    <t>国家情报总监</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
+  </si>
+  <si>
+    <t>国防情报局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国国家地理空间情报局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国国家侦察局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国国家安全局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A9%BA%E5%86%9B</t>
+  </si>
+  <si>
+    <t>美国空军</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%99%86%E5%86%9B</t>
+  </si>
+  <si>
+    <t>美国陆军</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B%E9%99%86%E6%88%98%E9%98%9F</t>
+  </si>
+  <si>
+    <t>美国海军陆战队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B</t>
+  </si>
+  <si>
+    <t>美国海军</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%B2%B8%E8%AD%A6%E5%8D%AB%E9%98%9F</t>
+  </si>
+  <si>
+    <t>美国海岸警卫队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
+  </si>
+  <si>
+    <t>美国国民警卫队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>美国政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
+  </si>
+  <si>
+    <t>美国选举</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
+  </si>
+  <si>
+    <t>美国选举人团</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>美国行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E5%85%9A</t>
+  </si>
+  <si>
+    <t>美国政党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>民主党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>共和党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>第三党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>美国第51州</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Political_status_of_Puerto_Rico</t>
+  </si>
+  <si>
+    <t>en-Political status of Puerto Rico</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>红州与蓝州</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Purple_America</t>
+  </si>
+  <si>
+    <t>en-Purple America</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E5%A7%86%E5%A4%A7%E5%8F%94</t>
+  </si>
+  <si>
+    <t>山姆大叔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9C%B0%E7%90%86</t>
+  </si>
+  <si>
+    <t>美国地理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%BF_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>县 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B7%B4%E6%8B%89%E5%A5%91%E4%BA%9A%E5%B1%B1%E8%84%89</t>
+  </si>
+  <si>
+    <t>阿巴拉契亚山脉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
+  </si>
+  <si>
+    <t>洛矶山脉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国国家公园列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
+  </si>
+  <si>
+    <t>美国地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
+  </si>
+  <si>
+    <t>新英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>中大西洋地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国南部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国中西部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
+  </si>
+  <si>
+    <t>北美大平原</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国西北部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国西南部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国河流列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>密西西比河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%8B%8F%E9%87%8C%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>密苏里河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>科罗拉多河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
+  </si>
+  <si>
+    <t>美国州份</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%A2%86%E5%9C%9F</t>
+  </si>
+  <si>
+    <t>美国领土</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Agriculture_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Agriculture in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
+  </si>
+  <si>
+    <t>美国梦</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/United_States_federal_budget</t>
+  </si>
+  <si>
+    <t>en-United States federal budget</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
+  </si>
+  <si>
+    <t>联邦储备系统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E5%B7%A5%E6%9C%83</t>
+  </si>
+  <si>
+    <t>美国的工会</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Social_programs_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Social programs in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
+  </si>
+  <si>
+    <t>美国国债</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Taxation in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
+  </si>
+  <si>
+    <t>美国交通</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%BA%E5%9C%BA%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国机场列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
+  </si>
+  <si>
+    <t>美国国道</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
+  </si>
+  <si>
+    <t>州际公路系统</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Unemployment_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Unemployment in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
+  </si>
+  <si>
+    <t>美元</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E5%B0%94%E8%A1%97</t>
+  </si>
+  <si>
+    <t>华尔街</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
+  </si>
+  <si>
+    <t>美国社会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%AF%E7%BD%AA</t>
+  </si>
+  <si>
+    <t>美国犯罪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>美国教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8D%AB%E7%94%9F%E4%BF%9D%E5%81%A5</t>
+  </si>
+  <si>
+    <t>美国卫生保健</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9B%91%E7%A6%81%E5%88%B6%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>美国监禁制度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%AF%AD%E8%A8%80</t>
+  </si>
+  <si>
+    <t>美国语言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8B%B1%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>美国英语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>美国的西班牙语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AA%92%E4%BD%93</t>
+  </si>
+  <si>
+    <t>美国媒体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>美国人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8A%82%E6%97%A5</t>
+  </si>
+  <si>
+    <t>美国节日</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%97%E6%95%99</t>
+  </si>
+  <si>
+    <t>美国宗教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
+  </si>
+  <si>
+    <t>美国社会阶层</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A6</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
+  </si>
+  <si>
+    <t>美国体育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
+  </si>
+  <si>
+    <t>美国LGBT权益</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
+  </si>
+  <si>
+    <t>美国同性婚姻</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%B6%E5%BA%AD%E7%BB%93%E6%9E%84</t>
+  </si>
+  <si>
+    <t>美国家庭结构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%8C%96</t>
+  </si>
+  <si>
+    <t>美国文化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>美国文学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%8E%B1%E5%A7%86%E6%96%87%E8%89%BA%E5%A4%8D%E5%85%B4</t>
+  </si>
+  <si>
+    <t>哈莱姆文艺复兴</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E9%AA%8C%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>超验主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9E%AE%E6%8E%89%E7%9A%84%E4%B8%80%E4%BB%A3</t>
+  </si>
+  <si>
+    <t>垮掉的一代</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%BB%BA%E7%AD%91</t>
+  </si>
+  <si>
+    <t>美国建筑</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
+  </si>
+  <si>
+    <t>美国饮食文化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97</t>
+  </si>
+  <si>
+    <t>美国国旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9F%B3%E4%B9%90</t>
+  </si>
+  <si>
+    <t>美国音乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B0%91%E9%97%B4%E9%9F%B3%E4%B9%90</t>
+  </si>
+  <si>
+    <t>美国民间音乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%81%E8%A1%8C%E9%9F%B3%E4%B9%90</t>
+  </si>
+  <si>
+    <t>美国流行音乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B5%E5%A3%AB%E4%B9%90</t>
+  </si>
+  <si>
+    <t>爵士乐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
+  </si>
+  <si>
+    <t>美国电视</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E5%BD%B1</t>
+  </si>
+  <si>
+    <t>美国电影</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E8%8E%B1%E5%9D%9E</t>
+  </si>
+  <si>
+    <t>好莱坞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>抽象表现主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
+  </si>
+  <si>
+    <t>美国社会问题</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B9%B3%E6%9D%83%E8%A1%8C%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>美国平权行动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BE%8B%E5%A4%96%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>美国例外主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E7%BE%8E%E6%83%85%E7%BB%AA</t>
+  </si>
+  <si>
+    <t>反美情绪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%AD%BB%E5%88%91%E5%88%B6%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>美国死刑制度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%94%AF%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>美国枪支政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%9E%9D%E6%9A%B4%E5%8A%9B%E5%95%8F%E9%A1%8C</t>
+  </si>
+  <si>
+    <t>美国枪枝暴力问题</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E6%94%B9%E9%9D%A9</t>
+  </si>
+  <si>
+    <t>美国医疗改革</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%9D%83</t>
+  </si>
+  <si>
+    <t>美国人权</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E7%95%8C</t>
+  </si>
+  <si>
+    <t>美墨边界</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%82%A5%E8%83%96%E9%97%AE%E9%A2%98</t>
+  </si>
+  <si>
+    <t>美国的肥胖问题</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%8D%E6%97%8F%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>美国种族主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
+  </si>
+  <si>
+    <t>权威控制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>虚拟国际规范文档</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
+  </si>
+  <si>
+    <t>美国国会图书馆控制号</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
+  </si>
+  <si>
+    <t>国际标准名称识别码</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>整合规范文档</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/LIBRIS</t>
+  </si>
+  <si>
+    <t>LIBRIS</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
+  </si>
+  <si>
+    <t>大学文档系统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
+  </si>
+  <si>
+    <t>法国国家图书馆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
+  </si>
+  <si>
+    <t>澳洲国家图书馆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
+  </si>
+  <si>
+    <t>捷克国家图书馆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
+  </si>
+  <si>
+    <t>西班牙国家图书馆</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E8%B0%83%E6%9F%A5%E5%B1%80</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%B8%E6%B3%95%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美国司法部</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_联邦调查局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E8%AA%BF%E6%9F%A5%E5%B1%80_(%E9%9B%BB%E5%BD%B1)</t>
-  </si>
-  <si>
-    <t>聯邦調查局 (電影)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E6%A9%9F%E6%A7%8B</t>
-  </si>
-  <si>
-    <t>政府機構</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>华盛顿哥伦比亚特区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%9F%83%E5%BE%B7%E5%8A%A0%C2%B7%E8%83%A1%E4%BD%9B%E5%A4%A7%E6%A8%93</t>
-  </si>
-  <si>
-    <t>約翰·埃德加·胡佛大樓</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%9D%90%E6%A0%87</t>
-  </si>
-  <si>
-    <t>地理坐标</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E8%AA%BF%E6%9F%A5%E5%B1%80%E9%95%B7</t>
-  </si>
-  <si>
-    <t>聯邦調查局長</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E6%96%AF%E6%89%98%E5%BC%97%C2%B7A%C2%B7%E9%9B%B7</t>
-  </si>
-  <si>
-    <t>克里斯托弗·A·雷</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Deputy_Director_of_the_Federal_Bureau_of_Investigation</t>
-  </si>
-  <si>
-    <t>en-Deputy Director of the Federal Bureau of Investigation</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E9%AD%AF%C2%B7%E9%BA%A5%E5%8D%A1%E6%AF%94</t>
-  </si>
-  <si>
-    <t>安德魯·麥卡比</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E5%9F%83%E5%BE%B7%E5%8A%A0%C2%B7%E8%83%A1%E4%BD%9B</t>
-  </si>
-  <si>
-    <t>约翰·埃德加·胡佛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%C2%B7%E8%B4%B9%E5%B0%94%E7%89%B9</t>
-  </si>
-  <si>
-    <t>马克·费尔特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E9%97%A8%E4%BA%8B%E4%BB%B6</t>
-  </si>
-  <si>
-    <t>水门事件</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>美国联邦政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E9%96%93%E8%AB%9C</t>
-  </si>
-  <si>
-    <t>反間諜</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B3%95%E5%85%B8</t>
-  </si>
-  <si>
-    <t>美国法典</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%B8%E6%B3%95%E9%83%A8%E9%95%BF</t>
-  </si>
-  <si>
-    <t>美国司法部长</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6</t>
-  </si>
-  <si>
-    <t>联邦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
-  </si>
-  <si>
-    <t>美国宪法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A7%90%E5%A4%96%E4%BD%BF%E9%A4%A8%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美國駐外使館列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A5%A5%E5%A4%9A%C2%B7%E7%BD%97%E6%96%AF%E7%A6%8F</t>
-  </si>
-  <si>
-    <t>西奥多·罗斯福</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%9F%83%E5%BE%B7%E5%8A%A0%C2%B7%E8%83%A1%E4%BD%9B</t>
-  </si>
-  <si>
-    <t>約翰·埃德加·胡佛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>社会主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E8%B4%9D%E7%89%B9%C2%B7%E7%88%B1%E5%9B%A0%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>阿尔贝特·爱因斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%85%B0%E5%85%8B%E6%9E%97%C2%B7%E5%BE%B7%E6%8B%89%E8%AF%BA%C2%B7%E7%BD%97%E6%96%AF%E7%A6%8F</t>
-  </si>
-  <si>
-    <t>富兰克林·德拉诺·罗斯福</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>自由主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>总统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E9%83%A8%E9%97%A8</t>
-  </si>
-  <si>
-    <t>行政部门</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>維吉尼亞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%A1%E6%8F%90%E7%A7%91</t>
-  </si>
-  <si>
-    <t>匡提科</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E8%BF%AA%E6%9E%97%E6%9D%B0</t>
-  </si>
-  <si>
-    <t>约翰·迪林杰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%83%E5%A8%83%E8%84%B8%E5%B0%BC%E5%B0%94%E6%A3%AE</t>
-  </si>
-  <si>
-    <t>娃娃脸尼尔森</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%BA%E5%85%B3%E6%9E%AA%E5%87%AF%E5%88%A9</t>
-  </si>
-  <si>
-    <t>机关枪凯利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%89K%E5%85%9A</t>
-  </si>
-  <si>
-    <t>三K党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%97%B4%E8%B0%8D</t>
-  </si>
-  <si>
-    <t>间谍</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
-  </si>
-  <si>
-    <t>第二次世界大战</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%B2%B9</t>
-  </si>
-  <si>
-    <t>纳粹</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8C%81%E4%B8%8D%E5%90%8C%E6%94%BF%E8%A7%81%E8%80%85</t>
-  </si>
-  <si>
-    <t>持不同政见者</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E4%B8%81%C2%B7%E8%B7%AF%E5%BE%B7%C2%B7%E9%87%91</t>
-  </si>
-  <si>
-    <t>马丁·路德·金</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E9%82%AE%E6%8A%A5</t>
-  </si>
-  <si>
-    <t>华盛顿邮报</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E6%A7%8D</t>
-  </si>
-  <si>
-    <t>手槍</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/SIG_P226%E6%89%8B%E6%A7%8D</t>
-  </si>
-  <si>
-    <t>SIG P226手槍</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/SIG_P228%E6%89%8B%E6%A7%8D</t>
-  </si>
-  <si>
-    <t>SIG P228手槍</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%B4%9B%E5%85%8B</t>
-  </si>
-  <si>
-    <t>格洛克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%B4%9B%E5%85%8B22</t>
-  </si>
-  <si>
-    <t>格洛克22</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%B4%9B%E5%85%8B23</t>
-  </si>
-  <si>
-    <t>格洛克23</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%B4%9B%E5%85%8B17</t>
-  </si>
-  <si>
-    <t>格洛克17</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%B4%9B%E5%85%8B19</t>
-  </si>
-  <si>
-    <t>格洛克19</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%B4%9B%E5%85%8B26</t>
-  </si>
-  <si>
-    <t>格洛克26</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%B4%9B%E5%85%8B27</t>
-  </si>
-  <si>
-    <t>格洛克27</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%B4%9B%E5%85%8B21</t>
-  </si>
-  <si>
-    <t>格洛克21</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/M1911%E6%89%8B%E6%A7%8D</t>
-  </si>
-  <si>
-    <t>M1911手槍</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%98%A5%E7%94%B0%E5%85%B5%E5%B7%A5%E5%BB%A0</t>
-  </si>
-  <si>
-    <t>春田兵工廠</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E8%AA%BF%E6%9F%A5%E5%B1%80%E7%89%B9%E7%A8%AE%E6%AD%A6%E5%99%A8%E5%92%8C%E6%88%B0%E8%A1%93%E9%83%A8%E9%9A%8A</t>
-  </si>
-  <si>
-    <t>聯邦調查局特種武器和戰術部隊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E8%B3%AA%E6%8B%AF%E6%95%91%E9%9A%8A</t>
-  </si>
-  <si>
-    <t>人質拯救隊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%9D%E9%8B%92%E6%A7%8D</t>
-  </si>
-  <si>
-    <t>衝鋒槍</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/HK_MP5%E8%A1%9D%E9%8B%92%E6%A7%8D</t>
-  </si>
-  <si>
-    <t>HK MP5衝鋒槍</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9C%B0%E5%BD%88%E6%A7%8D</t>
-  </si>
-  <si>
-    <t>霰彈槍</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E6%98%8E%E7%99%BB870%E6%B3%B5%E5%8B%95%E5%BC%8F%E9%9C%B0%E5%BD%88%E6%A7%8D</t>
-  </si>
-  <si>
-    <t>雷明登870泵動式霰彈槍</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%A5%E6%A7%8D</t>
-  </si>
-  <si>
-    <t>步槍</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/M4%E5%8D%A1%E8%B3%93%E6%A7%8D</t>
-  </si>
-  <si>
-    <t>M4卡賓槍</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/CAR-15%E5%8D%A1%E8%B3%93%E6%A7%8D</t>
-  </si>
-  <si>
-    <t>CAR-15卡賓槍</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E6%A4%92%E5%99%B4%E9%9C%A7</t>
-  </si>
-  <si>
-    <t>胡椒噴霧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%B8%E7%B8%AE%E8%AD%A6%E6%A3%8D</t>
-  </si>
-  <si>
-    <t>伸縮警棍</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>美国总统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E9%87%8C%C2%B7S%C2%B7%E6%9D%9C%E9%B2%81%E9%97%A8</t>
-  </si>
-  <si>
-    <t>哈里·S·杜鲁门</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%80%80%E7%89%B9%C2%B7%E8%89%BE%E6%A3%AE%E8%B1%AA%E5%A8%81%E5%B0%94</t>
-  </si>
-  <si>
-    <t>德怀特·艾森豪威尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E8%82%AF%E5%B0%BC%E8%BF%AA</t>
-  </si>
-  <si>
-    <t>约翰·肯尼迪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E7%99%BB%C2%B7%E7%BA%A6%E7%BF%B0%E9%80%8A</t>
-  </si>
-  <si>
-    <t>林登·约翰逊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%E5%BE%B7%C2%B7%E5%B0%BC%E5%85%8B%E6%9D%BE</t>
-  </si>
-  <si>
-    <t>理查德·尼克松</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/L._Patrick_Gray</t>
-  </si>
-  <si>
-    <t>en-L. Patrick Gray</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/William_Ruckelshaus</t>
-  </si>
-  <si>
-    <t>en-William Ruckelshaus</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Clarence_M._Kelley</t>
-  </si>
-  <si>
-    <t>en-Clarence M. Kelley</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E6%8B%89%E5%B0%94%E5%BE%B7%C2%B7%E7%A6%8F%E7%89%B9</t>
-  </si>
-  <si>
-    <t>杰拉尔德·福特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%B1%B3%C2%B7%E5%8D%A1%E7%89%B9</t>
-  </si>
-  <si>
-    <t>吉米·卡特</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/James_B._Adams</t>
-  </si>
-  <si>
-    <t>en-James B. Adams</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/William_H._Webster</t>
-  </si>
-  <si>
-    <t>en-William H. Webster</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E7%BA%B3%E5%BE%B7%C2%B7%E9%87%8C%E6%A0%B9</t>
-  </si>
-  <si>
-    <t>罗纳德·里根</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/John_E._Otto</t>
-  </si>
-  <si>
-    <t>en-John E. Otto</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/William_S._Sessions</t>
-  </si>
-  <si>
-    <t>en-William S. Sessions</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7%E8%B5%AB%E4%BC%AF%E7%89%B9%C2%B7%E6%B2%83%E5%85%8B%C2%B7%E5%B8%83%E4%BB%80</t>
-  </si>
-  <si>
-    <t>乔治·赫伯特·沃克·布什</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%B0%94%C2%B7%E5%85%8B%E6%9E%97%E9%A1%BF</t>
-  </si>
-  <si>
-    <t>比尔·克林顿</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Floyd_I._Clarke</t>
-  </si>
-  <si>
-    <t>en-Floyd I. Clarke</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Louis_Freeh</t>
-  </si>
-  <si>
-    <t>en-Louis Freeh</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7%E6%B2%83%E5%85%8B%C2%B7%E5%B8%83%E4%BB%80</t>
-  </si>
-  <si>
-    <t>乔治·沃克·布什</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Thomas_J._Pickard</t>
-  </si>
-  <si>
-    <t>en-Thomas J. Pickard</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E7%A9%86%E5%8B%92</t>
-  </si>
-  <si>
-    <t>羅伯特·穆勒</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E6%8B%89%E5%85%8B%C2%B7%E5%A5%A5%E5%B7%B4%E9%A9%AC</t>
-  </si>
-  <si>
-    <t>贝拉克·奥巴马</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E7%A7%91%E7%B1%B3</t>
-  </si>
-  <si>
-    <t>詹姆斯·科米</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%94%90%E7%B4%8D%C2%B7%E5%B7%9D%E6%99%AE</t>
-  </si>
-  <si>
-    <t>唐納·川普</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E9%AD%AF%C2%B7G%C2%B7%E9%BA%A5%E5%8D%A1%E6%AF%94</t>
-  </si>
-  <si>
-    <t>安德魯·G·麥卡比</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E8%AA%BF%E6%9F%A5%E5%B1%80%E5%8D%81%E5%A4%A7%E9%80%9A%E7%B7%9D%E8%A6%81%E7%8A%AF</t>
-  </si>
-  <si>
-    <t>美國聯邦調查局十大通緝要犯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E5%A0%B1%E5%B1%80</t>
-  </si>
-  <si>
-    <t>中央情報局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E7%B4%A2%E5%BC%95</t>
-  </si>
-  <si>
-    <t>Template talk-美国索引</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>美国历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2%E5%B9%B4%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国历史年表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
-  </si>
-  <si>
-    <t>前哥倫布時期</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>十三殖民地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8B%AC%E7%AB%8B%E5%AE%A3%E8%A8%80</t>
-  </si>
-  <si>
-    <t>美国独立宣言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9D%A9%E5%91%BD</t>
-  </si>
-  <si>
-    <t>美国革命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
-  </si>
-  <si>
-    <t>美國領土變遷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%88%98</t>
-  </si>
-  <si>
-    <t>美国内战</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%87%8D%E5%BB%BA%E6%97%B6%E6%9C%9F</t>
-  </si>
-  <si>
-    <t>美国重建时期</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%90%A7%E6%9D%A1</t>
-  </si>
-  <si>
-    <t>大萧条</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%98</t>
-  </si>
-  <si>
-    <t>冷战</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>朝鲜战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%B0%91%E6%9D%83%E8%BF%90%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>非裔美国人民权运动</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>越南战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
-  </si>
-  <si>
-    <t>波斯灣戰爭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>反恐战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
-  </si>
-  <si>
-    <t>金融海嘯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
-  </si>
-  <si>
-    <t>美国人口</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>美国经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%80%BA%E5%8A%A1%E4%B8%8A%E9%99%90%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>美国债务上限历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%9B%E4%BA%8B</t>
-  </si>
-  <si>
-    <t>美国军事</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
-  </si>
-  <si>
-    <t>美國郵政署</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
-  </si>
-  <si>
-    <t>美国科学技术</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B3%95%E5%BE%8B</t>
-  </si>
-  <si>
-    <t>美国法律</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9D%83%E5%88%A9%E6%B3%95%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美国权利法案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
-  </si>
-  <si>
-    <t>權力分立</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
-  </si>
-  <si>
-    <t>立法机构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>美国国会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国众议院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国参议院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%89%AF%E6%80%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>美国副总统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美國聯邦機構列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E5%8A%9E%E4%BA%8B%E6%9C%BA%E6%9E%84</t>
-  </si>
-  <si>
-    <t>美国总统办事机构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E9%98%81</t>
-  </si>
-  <si>
-    <t>美国内阁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
-  </si>
-  <si>
-    <t>美國政府獨立機構</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国最高法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦上诉法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E5%9C%B0%E5%8C%BA%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦地区法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
-  </si>
-  <si>
-    <t>美國情報體系</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
-  </si>
-  <si>
-    <t>國家情報總監</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
-  </si>
-  <si>
-    <t>中央情报局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
-  </si>
-  <si>
-    <t>國防情報局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美國國家地理空間情報局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美国国家侦察局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美国国家安全局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A9%BA%E5%86%9B</t>
-  </si>
-  <si>
-    <t>美国空军</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%99%86%E5%86%9B</t>
-  </si>
-  <si>
-    <t>美国陆军</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B%E9%99%86%E6%88%98%E9%98%9F</t>
-  </si>
-  <si>
-    <t>美国海军陆战队</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B</t>
-  </si>
-  <si>
-    <t>美国海军</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%B2%B8%E8%AD%A6%E5%8D%AB%E9%98%9F</t>
-  </si>
-  <si>
-    <t>美国海岸警卫队</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
-  </si>
-  <si>
-    <t>美國國民警衛隊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>美国政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
-  </si>
-  <si>
-    <t>美國選舉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
-  </si>
-  <si>
-    <t>美国选举人团</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>美国行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E5%85%9A</t>
-  </si>
-  <si>
-    <t>美国政党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>民主党 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>共和党 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>第三党 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>美國第51州</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Political_status_of_Puerto_Rico</t>
-  </si>
-  <si>
-    <t>en-Political status of Puerto Rico</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>紅州與藍州</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Purple_America</t>
-  </si>
-  <si>
-    <t>en-Purple America</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E5%A7%86%E5%A4%A7%E5%8F%94</t>
-  </si>
-  <si>
-    <t>山姆大叔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9C%B0%E7%90%86</t>
-  </si>
-  <si>
-    <t>美国地理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%BF_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>县 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B7%B4%E6%8B%89%E5%A5%91%E4%BA%9A%E5%B1%B1%E8%84%89</t>
-  </si>
-  <si>
-    <t>阿巴拉契亚山脉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
-  </si>
-  <si>
-    <t>洛磯山脈</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国国家公园列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
-  </si>
-  <si>
-    <t>美國地區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
-  </si>
-  <si>
-    <t>新英格蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>中大西洋地区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國南部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國中西部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
-  </si>
-  <si>
-    <t>北美大平原</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國西北部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國西南部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国河流列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>密西西比河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%8B%8F%E9%87%8C%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>密苏里河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>科罗拉多河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
-  </si>
-  <si>
-    <t>美国州份</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%A2%86%E5%9C%9F</t>
-  </si>
-  <si>
-    <t>美国领土</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Agriculture_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Agriculture in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
-  </si>
-  <si>
-    <t>美國夢</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/United_States_federal_budget</t>
-  </si>
-  <si>
-    <t>en-United States federal budget</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
-  </si>
-  <si>
-    <t>聯邦儲備系統</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E5%B7%A5%E6%9C%83</t>
-  </si>
-  <si>
-    <t>美國的工會</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Social_programs_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Social programs in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
-  </si>
-  <si>
-    <t>美國國債</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Taxation in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
-  </si>
-  <si>
-    <t>美國交通</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%BA%E5%9C%BA%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国机场列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
-  </si>
-  <si>
-    <t>美國國道</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
-  </si>
-  <si>
-    <t>州際公路系統</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Unemployment_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Unemployment in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
-  </si>
-  <si>
-    <t>美元</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E5%B0%94%E8%A1%97</t>
-  </si>
-  <si>
-    <t>华尔街</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
-  </si>
-  <si>
-    <t>美國社會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%AF%E7%BD%AA</t>
-  </si>
-  <si>
-    <t>美国犯罪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>美国教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8D%AB%E7%94%9F%E4%BF%9D%E5%81%A5</t>
-  </si>
-  <si>
-    <t>美国卫生保健</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9B%91%E7%A6%81%E5%88%B6%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>美国监禁制度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%AF%AD%E8%A8%80</t>
-  </si>
-  <si>
-    <t>美国语言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8B%B1%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>美国英语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>美国的西班牙语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AA%92%E4%BD%93</t>
-  </si>
-  <si>
-    <t>美国媒体</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>美国人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8A%82%E6%97%A5</t>
-  </si>
-  <si>
-    <t>美国节日</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%97%E6%95%99</t>
-  </si>
-  <si>
-    <t>美国宗教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
-  </si>
-  <si>
-    <t>美國社會階層</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A6</t>
-  </si>
-  <si>
-    <t>美国梦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
-  </si>
-  <si>
-    <t>美国体育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
-  </si>
-  <si>
-    <t>美國LGBT權益</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
-  </si>
-  <si>
-    <t>美国同性婚姻</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%B6%E5%BA%AD%E7%BB%93%E6%9E%84</t>
-  </si>
-  <si>
-    <t>美国家庭结构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%8C%96</t>
-  </si>
-  <si>
-    <t>美国文化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>美国文学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%8E%B1%E5%A7%86%E6%96%87%E8%89%BA%E5%A4%8D%E5%85%B4</t>
-  </si>
-  <si>
-    <t>哈莱姆文艺复兴</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E9%AA%8C%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>超验主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9E%AE%E6%8E%89%E7%9A%84%E4%B8%80%E4%BB%A3</t>
-  </si>
-  <si>
-    <t>垮掉的一代</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%BB%BA%E7%AD%91</t>
-  </si>
-  <si>
-    <t>美国建筑</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
-  </si>
-  <si>
-    <t>美國飲食文化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97</t>
-  </si>
-  <si>
-    <t>美国国旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9F%B3%E4%B9%90</t>
-  </si>
-  <si>
-    <t>美国音乐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B0%91%E9%97%B4%E9%9F%B3%E4%B9%90</t>
-  </si>
-  <si>
-    <t>美国民间音乐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%81%E8%A1%8C%E9%9F%B3%E4%B9%90</t>
-  </si>
-  <si>
-    <t>美国流行音乐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B5%E5%A3%AB%E4%B9%90</t>
-  </si>
-  <si>
-    <t>爵士乐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
-  </si>
-  <si>
-    <t>美國電視</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E5%BD%B1</t>
-  </si>
-  <si>
-    <t>美国电影</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E8%8E%B1%E5%9D%9E</t>
-  </si>
-  <si>
-    <t>好莱坞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>抽象表現主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
-  </si>
-  <si>
-    <t>美国社会问题</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B9%B3%E6%9D%83%E8%A1%8C%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>美国平权行动</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BE%8B%E5%A4%96%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>美国例外主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E7%BE%8E%E6%83%85%E7%BB%AA</t>
-  </si>
-  <si>
-    <t>反美情绪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%AD%BB%E5%88%91%E5%88%B6%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>美国死刑制度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%94%AF%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>美國槍支政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%9E%9D%E6%9A%B4%E5%8A%9B%E5%95%8F%E9%A1%8C</t>
-  </si>
-  <si>
-    <t>美國槍枝暴力問題</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E6%94%B9%E9%9D%A9</t>
-  </si>
-  <si>
-    <t>美國醫療改革</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%9D%83</t>
-  </si>
-  <si>
-    <t>美国人权</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E7%95%8C</t>
-  </si>
-  <si>
-    <t>美墨邊界</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%82%A5%E8%83%96%E9%97%AE%E9%A2%98</t>
-  </si>
-  <si>
-    <t>美国的肥胖问题</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%8D%E6%97%8F%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>美国种族主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
-  </si>
-  <si>
-    <t>權威控制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>虚拟国际规范文档</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
-  </si>
-  <si>
-    <t>美国国会图书馆控制号</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
-  </si>
-  <si>
-    <t>國際標準名稱識別碼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>整合规范文档</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/LIBRIS</t>
-  </si>
-  <si>
-    <t>LIBRIS</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
-  </si>
-  <si>
-    <t>大學文檔系統</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
-  </si>
-  <si>
-    <t>法国国家图书馆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
-  </si>
-  <si>
-    <t>澳洲國家圖書館</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
-  </si>
-  <si>
-    <t>捷克国家图书馆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
-  </si>
-  <si>
-    <t>西班牙国家图书馆</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -1878,7 +1878,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I255"/>
+  <dimension ref="A1:I257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2567,7 +2567,7 @@
         <v>47</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -2593,10 +2593,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -2622,10 +2622,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -2651,10 +2651,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>2</v>
@@ -2680,10 +2680,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -2709,10 +2709,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>6</v>
@@ -2738,10 +2738,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>2</v>
@@ -2767,10 +2767,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2796,10 +2796,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2825,10 +2825,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2854,10 +2854,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2883,10 +2883,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2912,10 +2912,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2941,10 +2941,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>4</v>
@@ -2970,10 +2970,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2999,10 +2999,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -3028,10 +3028,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -3057,10 +3057,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
@@ -3086,10 +3086,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -3115,10 +3115,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>5</v>
@@ -3144,10 +3144,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -3173,10 +3173,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -3202,10 +3202,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -3231,10 +3231,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>10</v>
@@ -3260,10 +3260,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>6</v>
@@ -3289,10 +3289,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>8</v>
@@ -3318,10 +3318,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>48</v>
@@ -3347,10 +3347,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>6</v>
@@ -3376,13 +3376,13 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
       </c>
-      <c r="F52" t="s">
-        <v>104</v>
-      </c>
       <c r="G52" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H52" t="s">
         <v>4</v>
@@ -3405,10 +3405,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -3434,10 +3434,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3463,10 +3463,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3492,10 +3492,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3521,10 +3521,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3550,10 +3550,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>3</v>
@@ -3579,10 +3579,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3608,10 +3608,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>3</v>
@@ -3637,10 +3637,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3666,10 +3666,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -3695,10 +3695,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3724,10 +3724,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3753,10 +3753,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3782,10 +3782,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3811,10 +3811,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -3840,10 +3840,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3869,10 +3869,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3898,10 +3898,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3927,10 +3927,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3956,10 +3956,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>4</v>
@@ -3985,10 +3985,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4014,10 +4014,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4043,10 +4043,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4072,10 +4072,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4101,10 +4101,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>3</v>
@@ -4130,10 +4130,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4159,10 +4159,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4188,10 +4188,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>3</v>
@@ -4217,10 +4217,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4246,10 +4246,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
         <v>163</v>
-      </c>
-      <c r="F82" t="s">
-        <v>164</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4275,10 +4275,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" t="s">
         <v>165</v>
-      </c>
-      <c r="F83" t="s">
-        <v>166</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4304,10 +4304,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>166</v>
+      </c>
+      <c r="F84" t="s">
         <v>167</v>
-      </c>
-      <c r="F84" t="s">
-        <v>168</v>
       </c>
       <c r="G84" t="n">
         <v>3</v>
@@ -4333,10 +4333,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>168</v>
+      </c>
+      <c r="F85" t="s">
         <v>169</v>
-      </c>
-      <c r="F85" t="s">
-        <v>170</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4362,10 +4362,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" t="s">
         <v>171</v>
-      </c>
-      <c r="F86" t="s">
-        <v>172</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4391,10 +4391,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F87" t="s">
         <v>173</v>
-      </c>
-      <c r="F87" t="s">
-        <v>174</v>
       </c>
       <c r="G87" t="n">
         <v>3</v>
@@ -4420,10 +4420,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>174</v>
+      </c>
+      <c r="F88" t="s">
         <v>175</v>
-      </c>
-      <c r="F88" t="s">
-        <v>176</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4449,10 +4449,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>176</v>
+      </c>
+      <c r="F89" t="s">
         <v>177</v>
-      </c>
-      <c r="F89" t="s">
-        <v>178</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4478,10 +4478,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>178</v>
+      </c>
+      <c r="F90" t="s">
         <v>179</v>
-      </c>
-      <c r="F90" t="s">
-        <v>180</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -4507,10 +4507,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>180</v>
+      </c>
+      <c r="F91" t="s">
         <v>181</v>
-      </c>
-      <c r="F91" t="s">
-        <v>182</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4536,10 +4536,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>182</v>
+      </c>
+      <c r="F92" t="s">
         <v>183</v>
-      </c>
-      <c r="F92" t="s">
-        <v>184</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -4565,10 +4565,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>184</v>
+      </c>
+      <c r="F93" t="s">
         <v>185</v>
-      </c>
-      <c r="F93" t="s">
-        <v>186</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4594,10 +4594,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>186</v>
+      </c>
+      <c r="F94" t="s">
         <v>187</v>
-      </c>
-      <c r="F94" t="s">
-        <v>188</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4623,10 +4623,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>188</v>
+      </c>
+      <c r="F95" t="s">
         <v>189</v>
-      </c>
-      <c r="F95" t="s">
-        <v>190</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4652,10 +4652,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>190</v>
+      </c>
+      <c r="F96" t="s">
         <v>191</v>
-      </c>
-      <c r="F96" t="s">
-        <v>192</v>
       </c>
       <c r="G96" t="n">
         <v>4</v>
@@ -4681,10 +4681,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>192</v>
+      </c>
+      <c r="F97" t="s">
         <v>193</v>
-      </c>
-      <c r="F97" t="s">
-        <v>194</v>
       </c>
       <c r="G97" t="n">
         <v>6</v>
@@ -4710,10 +4710,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>194</v>
+      </c>
+      <c r="F98" t="s">
         <v>195</v>
-      </c>
-      <c r="F98" t="s">
-        <v>196</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4739,10 +4739,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>196</v>
+      </c>
+      <c r="F99" t="s">
         <v>197</v>
-      </c>
-      <c r="F99" t="s">
-        <v>198</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4768,10 +4768,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>198</v>
+      </c>
+      <c r="F100" t="s">
         <v>199</v>
-      </c>
-      <c r="F100" t="s">
-        <v>200</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4797,10 +4797,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>200</v>
+      </c>
+      <c r="F101" t="s">
         <v>201</v>
-      </c>
-      <c r="F101" t="s">
-        <v>202</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4826,10 +4826,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>202</v>
+      </c>
+      <c r="F102" t="s">
         <v>203</v>
-      </c>
-      <c r="F102" t="s">
-        <v>204</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4855,10 +4855,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>204</v>
+      </c>
+      <c r="F103" t="s">
         <v>205</v>
-      </c>
-      <c r="F103" t="s">
-        <v>206</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4884,10 +4884,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>206</v>
+      </c>
+      <c r="F104" t="s">
         <v>207</v>
-      </c>
-      <c r="F104" t="s">
-        <v>208</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4913,10 +4913,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>208</v>
+      </c>
+      <c r="F105" t="s">
         <v>209</v>
-      </c>
-      <c r="F105" t="s">
-        <v>210</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4942,10 +4942,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>210</v>
+      </c>
+      <c r="F106" t="s">
         <v>211</v>
-      </c>
-      <c r="F106" t="s">
-        <v>212</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4971,10 +4971,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>212</v>
+      </c>
+      <c r="F107" t="s">
         <v>213</v>
-      </c>
-      <c r="F107" t="s">
-        <v>214</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5000,10 +5000,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>214</v>
+      </c>
+      <c r="F108" t="s">
         <v>215</v>
-      </c>
-      <c r="F108" t="s">
-        <v>216</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5029,10 +5029,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>216</v>
+      </c>
+      <c r="F109" t="s">
         <v>217</v>
-      </c>
-      <c r="F109" t="s">
-        <v>218</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5058,10 +5058,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>218</v>
+      </c>
+      <c r="F110" t="s">
         <v>219</v>
-      </c>
-      <c r="F110" t="s">
-        <v>220</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5087,10 +5087,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>220</v>
+      </c>
+      <c r="F111" t="s">
         <v>221</v>
-      </c>
-      <c r="F111" t="s">
-        <v>222</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5116,10 +5116,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>222</v>
+      </c>
+      <c r="F112" t="s">
         <v>223</v>
-      </c>
-      <c r="F112" t="s">
-        <v>224</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5145,10 +5145,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>224</v>
+      </c>
+      <c r="F113" t="s">
         <v>225</v>
-      </c>
-      <c r="F113" t="s">
-        <v>226</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5174,10 +5174,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>226</v>
+      </c>
+      <c r="F114" t="s">
         <v>227</v>
-      </c>
-      <c r="F114" t="s">
-        <v>228</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
@@ -5203,10 +5203,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>228</v>
+      </c>
+      <c r="F115" t="s">
         <v>229</v>
-      </c>
-      <c r="F115" t="s">
-        <v>230</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -5232,10 +5232,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>230</v>
+      </c>
+      <c r="F116" t="s">
         <v>231</v>
-      </c>
-      <c r="F116" t="s">
-        <v>232</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5261,10 +5261,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>232</v>
+      </c>
+      <c r="F117" t="s">
         <v>233</v>
-      </c>
-      <c r="F117" t="s">
-        <v>234</v>
       </c>
       <c r="G117" t="n">
         <v>3</v>
@@ -5290,10 +5290,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>234</v>
+      </c>
+      <c r="F118" t="s">
         <v>235</v>
-      </c>
-      <c r="F118" t="s">
-        <v>236</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5319,10 +5319,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>236</v>
+      </c>
+      <c r="F119" t="s">
         <v>237</v>
-      </c>
-      <c r="F119" t="s">
-        <v>238</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5377,10 +5377,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>238</v>
+      </c>
+      <c r="F121" t="s">
         <v>239</v>
-      </c>
-      <c r="F121" t="s">
-        <v>240</v>
       </c>
       <c r="G121" t="n">
         <v>6</v>
@@ -5435,10 +5435,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>240</v>
+      </c>
+      <c r="F123" t="s">
         <v>241</v>
-      </c>
-      <c r="F123" t="s">
-        <v>242</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5464,10 +5464,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>242</v>
+      </c>
+      <c r="F124" t="s">
         <v>243</v>
-      </c>
-      <c r="F124" t="s">
-        <v>244</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5493,10 +5493,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>244</v>
+      </c>
+      <c r="F125" t="s">
         <v>245</v>
-      </c>
-      <c r="F125" t="s">
-        <v>246</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5522,10 +5522,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>246</v>
+      </c>
+      <c r="F126" t="s">
         <v>247</v>
-      </c>
-      <c r="F126" t="s">
-        <v>248</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5551,10 +5551,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>248</v>
+      </c>
+      <c r="F127" t="s">
         <v>249</v>
-      </c>
-      <c r="F127" t="s">
-        <v>250</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5580,10 +5580,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>250</v>
+      </c>
+      <c r="F128" t="s">
         <v>251</v>
-      </c>
-      <c r="F128" t="s">
-        <v>252</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5609,10 +5609,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>252</v>
+      </c>
+      <c r="F129" t="s">
         <v>253</v>
-      </c>
-      <c r="F129" t="s">
-        <v>254</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5638,10 +5638,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>254</v>
+      </c>
+      <c r="F130" t="s">
         <v>255</v>
-      </c>
-      <c r="F130" t="s">
-        <v>256</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5667,10 +5667,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>256</v>
+      </c>
+      <c r="F131" t="s">
         <v>257</v>
-      </c>
-      <c r="F131" t="s">
-        <v>258</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5696,10 +5696,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>258</v>
+      </c>
+      <c r="F132" t="s">
         <v>259</v>
-      </c>
-      <c r="F132" t="s">
-        <v>260</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5725,10 +5725,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>260</v>
+      </c>
+      <c r="F133" t="s">
         <v>261</v>
-      </c>
-      <c r="F133" t="s">
-        <v>262</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5754,10 +5754,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>262</v>
+      </c>
+      <c r="F134" t="s">
         <v>263</v>
-      </c>
-      <c r="F134" t="s">
-        <v>264</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5783,10 +5783,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>264</v>
+      </c>
+      <c r="F135" t="s">
         <v>265</v>
-      </c>
-      <c r="F135" t="s">
-        <v>266</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5812,10 +5812,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>266</v>
+      </c>
+      <c r="F136" t="s">
         <v>267</v>
-      </c>
-      <c r="F136" t="s">
-        <v>268</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5841,10 +5841,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>268</v>
+      </c>
+      <c r="F137" t="s">
         <v>269</v>
-      </c>
-      <c r="F137" t="s">
-        <v>270</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5899,10 +5899,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>270</v>
+      </c>
+      <c r="F139" t="s">
         <v>271</v>
-      </c>
-      <c r="F139" t="s">
-        <v>272</v>
       </c>
       <c r="G139" t="n">
         <v>5</v>
@@ -5928,10 +5928,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>272</v>
+      </c>
+      <c r="F140" t="s">
         <v>273</v>
-      </c>
-      <c r="F140" t="s">
-        <v>274</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5957,10 +5957,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F141" t="s">
-        <v>276</v>
+        <v>189</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5986,10 +5986,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F142" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6015,10 +6015,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F143" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6044,10 +6044,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F144" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6073,10 +6073,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F145" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6102,10 +6102,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F146" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6131,10 +6131,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F147" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6160,10 +6160,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F148" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6189,10 +6189,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F149" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -6218,10 +6218,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F150" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6247,10 +6247,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F151" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6276,10 +6276,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F152" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G152" t="n">
         <v>6</v>
@@ -6305,10 +6305,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F153" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -6334,10 +6334,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F154" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6363,10 +6363,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F155" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6392,10 +6392,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F156" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6421,10 +6421,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F157" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6450,10 +6450,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F158" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6479,10 +6479,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F159" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6508,10 +6508,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F160" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6537,10 +6537,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F161" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6566,10 +6566,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F162" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6595,10 +6595,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F163" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6624,10 +6624,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F164" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6653,10 +6653,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F165" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G165" t="n">
         <v>3</v>
@@ -6682,10 +6682,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F166" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6711,10 +6711,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F167" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6740,10 +6740,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F168" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6769,10 +6769,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F169" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6798,10 +6798,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F170" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6827,10 +6827,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F171" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6856,10 +6856,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F172" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6885,10 +6885,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F173" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6914,10 +6914,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F174" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6943,10 +6943,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F175" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6972,10 +6972,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F176" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7001,10 +7001,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F177" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7030,10 +7030,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F178" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7059,10 +7059,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F179" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7088,10 +7088,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F180" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7117,10 +7117,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F181" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7146,10 +7146,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F182" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7175,10 +7175,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F183" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -7204,10 +7204,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F184" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7233,10 +7233,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F185" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7262,10 +7262,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F186" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7291,10 +7291,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F187" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7320,10 +7320,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F188" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7349,10 +7349,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F189" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7378,10 +7378,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F190" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7407,10 +7407,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F191" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7436,10 +7436,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F192" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7465,10 +7465,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F193" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7494,10 +7494,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F194" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7523,10 +7523,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F195" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7552,10 +7552,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F196" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7581,10 +7581,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F197" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G197" t="n">
         <v>2</v>
@@ -7610,10 +7610,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F198" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7639,10 +7639,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F199" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G199" t="n">
         <v>5</v>
@@ -7668,10 +7668,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F200" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G200" t="n">
         <v>10</v>
@@ -7697,10 +7697,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F201" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G201" t="n">
         <v>2</v>
@@ -7726,10 +7726,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F202" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7755,10 +7755,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F203" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7784,10 +7784,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F204" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7813,10 +7813,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F205" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7842,10 +7842,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F206" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7871,10 +7871,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F207" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G207" t="n">
         <v>4</v>
@@ -7900,10 +7900,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F208" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G208" t="n">
         <v>3</v>
@@ -7929,10 +7929,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F209" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7958,10 +7958,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F210" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7987,10 +7987,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F211" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8016,10 +8016,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F212" t="s">
-        <v>418</v>
+        <v>362</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8045,10 +8045,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F213" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8074,10 +8074,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F214" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8103,10 +8103,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F215" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8132,10 +8132,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F216" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8161,10 +8161,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F217" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G217" t="n">
         <v>2</v>
@@ -8190,10 +8190,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F218" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8219,10 +8219,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F219" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8248,10 +8248,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F220" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8277,10 +8277,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F221" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8306,10 +8306,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F222" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8335,10 +8335,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F223" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8364,10 +8364,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F224" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8393,10 +8393,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F225" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G225" t="n">
         <v>4</v>
@@ -8422,10 +8422,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F226" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8451,10 +8451,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F227" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8480,10 +8480,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F228" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8509,10 +8509,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F229" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8538,10 +8538,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F230" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G230" t="n">
         <v>2</v>
@@ -8567,10 +8567,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F231" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8596,10 +8596,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F232" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8625,10 +8625,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F233" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G233" t="n">
         <v>2</v>
@@ -8654,10 +8654,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F234" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8683,10 +8683,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F235" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8712,10 +8712,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F236" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8741,10 +8741,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F237" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8770,10 +8770,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F238" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8799,10 +8799,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F239" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8828,10 +8828,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F240" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -8857,10 +8857,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F241" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G241" t="n">
         <v>2</v>
@@ -8886,10 +8886,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F242" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -8915,10 +8915,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F243" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -8944,10 +8944,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F244" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -8973,10 +8973,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F245" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G245" t="n">
         <v>3</v>
@@ -9002,10 +9002,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F246" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9031,10 +9031,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F247" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9060,10 +9060,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F248" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9089,10 +9089,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F249" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9118,10 +9118,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F250" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9147,10 +9147,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F251" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9176,10 +9176,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F252" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9205,10 +9205,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F253" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9234,10 +9234,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F254" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9263,18 +9263,76 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
+        <v>500</v>
+      </c>
+      <c r="F255" t="s">
+        <v>501</v>
+      </c>
+      <c r="G255" t="n">
+        <v>1</v>
+      </c>
+      <c r="H255" t="s">
+        <v>4</v>
+      </c>
+      <c r="I255" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="s">
+        <v>0</v>
+      </c>
+      <c r="C256" t="s">
+        <v>1</v>
+      </c>
+      <c r="D256" t="n">
+        <v>255</v>
+      </c>
+      <c r="E256" t="s">
+        <v>502</v>
+      </c>
+      <c r="F256" t="s">
         <v>503</v>
       </c>
-      <c r="F255" t="s">
+      <c r="G256" t="n">
+        <v>13</v>
+      </c>
+      <c r="H256" t="s">
+        <v>4</v>
+      </c>
+      <c r="I256" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="s">
+        <v>0</v>
+      </c>
+      <c r="C257" t="s">
+        <v>1</v>
+      </c>
+      <c r="D257" t="n">
+        <v>256</v>
+      </c>
+      <c r="E257" t="s">
+        <v>502</v>
+      </c>
+      <c r="F257" t="s">
         <v>504</v>
       </c>
-      <c r="G255" t="n">
-        <v>1</v>
-      </c>
-      <c r="H255" t="s">
-        <v>4</v>
-      </c>
-      <c r="I255" t="n">
+      <c r="G257" t="n">
+        <v>1</v>
+      </c>
+      <c r="H257" t="s">
+        <v>4</v>
+      </c>
+      <c r="I257" t="n">
         <v>3</v>
       </c>
     </row>
